--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_3_19.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_3_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>758964.9261764761</v>
+        <v>757077.3446600736</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -662,22 +662,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>295.9385237053618</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>123.8845600436659</v>
       </c>
     </row>
     <row r="3">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>108.5030911768129</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>48.03644161695806</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,13 +896,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>22.69238920349945</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>98.13583866335729</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>49.38957925603672</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,13 +1069,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>122.9755501377541</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>308.0679216971608</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>263.2135161419529</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1345,19 +1345,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>195.7571515107716</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>223.1498336210773</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>115.5269768002173</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1537,13 +1537,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.524467086866414</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1780,10 +1780,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>128.4285848360766</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1825,13 +1825,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>2.033556792691229</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1856,13 +1856,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,19 +1999,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>110.976361801959</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2062,10 +2062,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>164.3675597136123</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2175,10 +2175,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H21" t="n">
-        <v>94.98542483262919</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.9013320701444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T21" t="n">
         <v>192.9654699154601</v>
@@ -2290,7 +2290,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>139.1537278750046</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651532056</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>115.526976800218</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>132.4314103685668</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,10 +2539,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>78.70660457397449</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>143.005395662808</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2795,7 +2795,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533803</v>
+        <v>124.6287235533804</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700709</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.4122163896554</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801221</v>
+        <v>91.23070601801226</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437429</v>
+        <v>90.21779139437433</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348207</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897917</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571507</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523583</v>
+        <v>45.69848280130422</v>
       </c>
       <c r="S31" t="n">
         <v>142.7175533550463</v>
@@ -3007,16 +3007,16 @@
         <v>231.0340957700204</v>
       </c>
       <c r="V31" t="n">
-        <v>196.934386695271</v>
+        <v>196.9343866952711</v>
       </c>
       <c r="W31" t="n">
-        <v>231.319741708034</v>
+        <v>231.3197417080341</v>
       </c>
       <c r="X31" t="n">
         <v>170.5063987604802</v>
       </c>
       <c r="Y31" t="n">
-        <v>21.65873182143635</v>
+        <v>163.3813967235379</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898712</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857165</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692846</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329054</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373688</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789745</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463129</v>
+        <v>42.28735533463181</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415209</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S34" t="n">
-        <v>129.7889198539625</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T34" t="n">
-        <v>153.4156709287485</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U34" t="n">
-        <v>218.1054622689366</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
         <v>184.0057531941873</v>
@@ -3250,7 +3250,7 @@
         <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
-        <v>157.5777652593964</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
         <v>150.4527632224541</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898712</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857165</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692846</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329054</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373688</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789542</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463129</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415209</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S37" t="n">
-        <v>129.7889198539625</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T37" t="n">
-        <v>153.4156709287485</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U37" t="n">
-        <v>218.1054622689366</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
         <v>184.0057531941873</v>
@@ -3487,7 +3487,7 @@
         <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
-        <v>157.5777652593964</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
         <v>150.4527632224541</v>
@@ -3509,7 +3509,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722625</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3673,13 +3673,13 @@
         <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
         <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1421.217123115521</v>
+        <v>1791.109440255352</v>
       </c>
       <c r="C2" t="n">
-        <v>1052.254606175109</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D2" t="n">
-        <v>693.9889075683584</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E2" t="n">
-        <v>693.9889075683584</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>395.0611058457707</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2478.514423990285</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>2147.451536646714</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W2" t="n">
-        <v>1794.6828813766</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="X2" t="n">
-        <v>1421.217123115521</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="Y2" t="n">
-        <v>1421.217123115521</v>
+        <v>1791.109440255352</v>
       </c>
     </row>
     <row r="3">
@@ -4407,25 +4407,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>517.0636002298164</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>407.4645182330357</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>502.0437482952929</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600561</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600561</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W4" t="n">
-        <v>698.7120650600561</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X4" t="n">
-        <v>698.7120650600561</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y4" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4541,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2090.781606227855</v>
+        <v>1744.740694543503</v>
       </c>
       <c r="C5" t="n">
-        <v>1721.819089287443</v>
+        <v>1744.740694543503</v>
       </c>
       <c r="D5" t="n">
-        <v>1363.553390680693</v>
+        <v>1386.474995936753</v>
       </c>
       <c r="E5" t="n">
         <v>1363.553390680693</v>
@@ -4565,19 +4565,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2421.844493571426</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2421.844493571426</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2090.781606227855</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W5" t="n">
-        <v>2090.781606227855</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="X5" t="n">
-        <v>2090.781606227855</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="Y5" t="n">
-        <v>2090.781606227855</v>
+        <v>1744.740694543503</v>
       </c>
     </row>
     <row r="6">
@@ -4620,67 +4620,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>272.8312459770186</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="C7" t="n">
-        <v>272.8312459770186</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="D7" t="n">
-        <v>272.8312459770186</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="E7" t="n">
-        <v>222.942782082032</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>381.5656062325728</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>223.8172336651029</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="T7" t="n">
-        <v>500.820796875036</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="U7" t="n">
-        <v>500.820796875036</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="V7" t="n">
-        <v>500.820796875036</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="W7" t="n">
-        <v>500.820796875036</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="X7" t="n">
-        <v>272.8312459770186</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="Y7" t="n">
-        <v>272.8312459770186</v>
+        <v>550.5654064942404</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>863.1126181035243</v>
+        <v>1322.340737411353</v>
       </c>
       <c r="C8" t="n">
-        <v>494.1501011631125</v>
+        <v>1322.340737411353</v>
       </c>
       <c r="D8" t="n">
-        <v>494.1501011631125</v>
+        <v>1322.340737411353</v>
       </c>
       <c r="E8" t="n">
-        <v>494.1501011631125</v>
+        <v>936.552484813109</v>
       </c>
       <c r="F8" t="n">
-        <v>487.2046004139091</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>473.2811963525</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W8" t="n">
-        <v>2013.317548404538</v>
+        <v>1695.806495672433</v>
       </c>
       <c r="X8" t="n">
-        <v>1639.851790143458</v>
+        <v>1322.340737411353</v>
       </c>
       <c r="Y8" t="n">
-        <v>1249.712458167646</v>
+        <v>1322.340737411353</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4878,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4993,19 +4993,19 @@
         <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>530.3944877309076</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>530.3944877309076</v>
       </c>
       <c r="W10" t="n">
-        <v>502.7251118619119</v>
+        <v>530.3944877309076</v>
       </c>
       <c r="X10" t="n">
-        <v>274.7355609638946</v>
+        <v>530.3944877309076</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>530.3944877309076</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155903</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5115,25 +5115,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1595.645765494011</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1925.508393158044</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2205.048458376741</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>565.0010960824693</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C13" t="n">
-        <v>396.0649131545624</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D13" t="n">
-        <v>396.0649131545624</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E13" t="n">
-        <v>396.0649131545624</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F13" t="n">
-        <v>249.1749656566521</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5206,7 +5206,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5224,25 +5224,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473454</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1075.21084526296</v>
+        <v>986.0022165609662</v>
       </c>
       <c r="V13" t="n">
-        <v>1075.21084526296</v>
+        <v>731.3177283550792</v>
       </c>
       <c r="W13" t="n">
-        <v>785.7936752259994</v>
+        <v>441.9005583181187</v>
       </c>
       <c r="X13" t="n">
-        <v>785.7936752259994</v>
+        <v>213.9110074201013</v>
       </c>
       <c r="Y13" t="n">
-        <v>565.0010960824693</v>
+        <v>213.9110074201013</v>
       </c>
     </row>
     <row r="14">
@@ -5273,13 +5273,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5288,34 +5288,34 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
         <v>3205.060556590537</v>
@@ -5352,28 +5352,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>233.7852434110089</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126629</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>581.2185435662823</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C16" t="n">
-        <v>412.2823606383754</v>
+        <v>972.2646934632138</v>
       </c>
       <c r="D16" t="n">
-        <v>412.2823606383754</v>
+        <v>822.148054050878</v>
       </c>
       <c r="E16" t="n">
-        <v>412.2823606383754</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F16" t="n">
-        <v>265.392413140465</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5464,22 +5464,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1369.190427289138</v>
       </c>
       <c r="U16" t="n">
-        <v>1275.130855347408</v>
+        <v>1369.190427289138</v>
       </c>
       <c r="V16" t="n">
-        <v>1275.130855347408</v>
+        <v>1369.190427289138</v>
       </c>
       <c r="W16" t="n">
-        <v>985.7136853104473</v>
+        <v>1369.190427289138</v>
       </c>
       <c r="X16" t="n">
-        <v>983.6595875400521</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.867008396522</v>
+        <v>1141.200876391121</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5510,13 +5510,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5534,31 +5534,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5589,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341673</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>394.223678370532</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>394.223678370532</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U19" t="n">
-        <v>1209.78763177146</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V19" t="n">
-        <v>955.1031435655733</v>
+        <v>955.1031435655741</v>
       </c>
       <c r="W19" t="n">
-        <v>955.1031435655733</v>
+        <v>665.6859735286135</v>
       </c>
       <c r="X19" t="n">
-        <v>727.113592667556</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y19" t="n">
-        <v>506.3210135240259</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155909</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822464</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5765,37 +5765,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5817,37 +5817,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>233.7852434110089</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277036</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341678</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M21" t="n">
-        <v>857.5427825698945</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N21" t="n">
-        <v>1661.954360834045</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
         <v>97.21709146028584</v>
@@ -5908,16 +5908,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688074</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471197</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5935,25 +5935,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473456</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765189</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952637</v>
+        <v>531.397718270632</v>
       </c>
       <c r="W22" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6011,28 +6011,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6054,13 +6054,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
@@ -6069,19 +6069,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
         <v>97.21709146028584</v>
@@ -6154,7 +6154,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.841167119728</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T25" t="n">
-        <v>1164.055751909234</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>1030.286650526843</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V25" t="n">
-        <v>775.6021623209559</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W25" t="n">
-        <v>486.1849922839954</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>486.1849922839954</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
         <v>1701.093169003441</v>
@@ -6212,64 +6212,64 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6300,7 +6300,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
@@ -6312,7 +6312,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>757.72413441243</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>588.7879514845231</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>438.6713120721873</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>438.6713120721873</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>359.169691290395</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>359.169691290395</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
         <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
         <v>779.0639759471193</v>
@@ -6397,37 +6397,37 @@
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1043.471262426384</v>
       </c>
       <c r="U28" t="n">
-        <v>1275.130855347408</v>
+        <v>754.3426236399424</v>
       </c>
       <c r="V28" t="n">
-        <v>1275.130855347408</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="W28" t="n">
-        <v>985.7136853104473</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="X28" t="n">
-        <v>757.72413441243</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y28" t="n">
-        <v>757.72413441243</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="29">
@@ -6440,19 +6440,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
@@ -6464,16 +6464,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6488,22 +6488,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6595,31 +6595,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>582.686636926036</v>
+        <v>448.6865844733388</v>
       </c>
       <c r="C31" t="n">
-        <v>469.5113192794998</v>
+        <v>448.6865844733388</v>
       </c>
       <c r="D31" t="n">
-        <v>375.1555451485347</v>
+        <v>448.6865844733388</v>
       </c>
       <c r="E31" t="n">
-        <v>283.0033168475123</v>
+        <v>356.5343561723163</v>
       </c>
       <c r="F31" t="n">
-        <v>191.8742346309719</v>
+        <v>265.4052739557765</v>
       </c>
       <c r="G31" t="n">
-        <v>191.8742346309719</v>
+        <v>152.9908175569678</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>152.9908175569678</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.251007986467</v>
+        <v>164.2510079864671</v>
       </c>
       <c r="K31" t="n">
         <v>369.0876362933499</v>
@@ -6643,28 +6643,28 @@
         <v>1936.126063056073</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899269</v>
+        <v>1889.965979418392</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096192</v>
+        <v>1745.806834615315</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167069</v>
+        <v>1577.782284686192</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356661998</v>
+        <v>1344.41451118112</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737481</v>
+        <v>1145.490888256604</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818915</v>
+        <v>911.8345835010141</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652449</v>
+        <v>739.6058978843673</v>
       </c>
       <c r="Y31" t="n">
-        <v>708.5742364749051</v>
+        <v>574.5741840222079</v>
       </c>
     </row>
     <row r="32">
@@ -6677,28 +6677,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
         <v>889.2841917514085</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6786,7 +6786,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6832,46 +6832,46 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108348</v>
+        <v>659.4602391108336</v>
       </c>
       <c r="C34" t="n">
-        <v>559.344147222969</v>
+        <v>559.3441472229678</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506744</v>
+        <v>478.0475988506731</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083224</v>
+        <v>398.954596308321</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504531</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103149</v>
+        <v>221.5295092103133</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982978</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649694</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N34" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P34" t="n">
         <v>1932.236826184156</v>
@@ -6883,25 +6883,25 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025264</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859418</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862498</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045221</v>
+        <v>924.2611010045213</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.288612901033</v>
+        <v>772.2886129010323</v>
       </c>
     </row>
     <row r="35">
@@ -6929,7 +6929,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028587</v>
@@ -6938,13 +6938,13 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
         <v>3183.709822619129</v>
@@ -6962,7 +6962,7 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
@@ -7023,7 +7023,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108336</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504509</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
@@ -7093,7 +7093,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K37" t="n">
         <v>394.6863306254958</v>
@@ -7114,31 +7114,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T37" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045213</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010323</v>
       </c>
     </row>
     <row r="38">
@@ -7154,16 +7154,16 @@
         <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822463</v>
@@ -7172,13 +7172,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515098</v>
@@ -7260,7 +7260,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103126</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982969</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028587</v>
@@ -7333,10 +7333,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7354,7 +7354,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S40" t="n">
         <v>1865.165908942116</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045208</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010318</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G41" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7485,7 +7485,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108335</v>
       </c>
       <c r="C43" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506723</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F43" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
@@ -7567,10 +7567,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L43" t="n">
         <v>709.8489468649691</v>
@@ -7594,25 +7594,25 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010321</v>
       </c>
     </row>
     <row r="44">
@@ -7625,28 +7625,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7673,22 +7673,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7734,7 +7734,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7743,10 +7743,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7801,16 +7801,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525402</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7825,28 +7825,28 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T46" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y46" t="n">
         <v>772.2886129010318</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8073,10 +8073,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8766,31 +8766,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>127.646125010065</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,31 +9003,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>96.03744927814685</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,31 +9240,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>234.4116509503166</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,31 +9477,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>15.83804904622707</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445211</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599049</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10589,13 +10589,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504511</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119856</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>64.30500338172</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23425,13 +23425,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>164.9691013765112</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23464,25 +23464,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,16 +23650,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>93.11897622231263</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -23713,13 +23713,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>223.6760985963459</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,19 +23887,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>68.85561837997825</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23950,10 +23950,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>61.34209567542487</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>82.39383318338463</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>82.39383318338542</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24376,7 +24376,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8059420300105</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>66.71444344895676</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>166.4935684633775</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,28 +24646,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>78.54216539558121</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,10 +24838,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700709</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.41221638965544</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348206</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897921</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571502</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>9.062612973931655</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>141.7226649021015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>-2.025899448199198e-12</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>-4.973799150320701e-13</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -26314,46 +26314,46 @@
         <v>389994.8406855344</v>
       </c>
       <c r="C2" t="n">
+        <v>389994.8406855344</v>
+      </c>
+      <c r="D2" t="n">
         <v>389994.8406855345</v>
       </c>
-      <c r="D2" t="n">
-        <v>389994.8406855344</v>
-      </c>
       <c r="E2" t="n">
+        <v>371477.6067508237</v>
+      </c>
+      <c r="F2" t="n">
+        <v>371477.6067508234</v>
+      </c>
+      <c r="G2" t="n">
         <v>371477.6067508236</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>371477.6067508236</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>371477.6067508237</v>
       </c>
-      <c r="H2" t="n">
-        <v>371477.6067508237</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>371477.6067508236</v>
-      </c>
-      <c r="J2" t="n">
-        <v>371477.6067508237</v>
       </c>
       <c r="K2" t="n">
         <v>386481.0304780066</v>
       </c>
       <c r="L2" t="n">
-        <v>389994.8406855348</v>
+        <v>389994.8406855347</v>
       </c>
       <c r="M2" t="n">
-        <v>389994.8406855348</v>
+        <v>389994.8406855347</v>
       </c>
       <c r="N2" t="n">
-        <v>389994.8406855348</v>
+        <v>389994.8406855347</v>
       </c>
       <c r="O2" t="n">
         <v>389994.8406855347</v>
       </c>
       <c r="P2" t="n">
-        <v>389994.8406855348</v>
+        <v>389994.8406855347</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,16 +26372,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.309604032037948e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>4.352540372565272e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26390,7 +26390,7 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284556</v>
+        <v>44162.60530284552</v>
       </c>
       <c r="L3" t="n">
         <v>10342.906800867</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284556</v>
+        <v>44162.60530284554</v>
       </c>
     </row>
     <row r="4">
@@ -26427,31 +26427,31 @@
         <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687068</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="I4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687068</v>
       </c>
       <c r="K4" t="n">
-        <v>40339.23010106722</v>
+        <v>40339.23010106719</v>
       </c>
       <c r="L4" t="n">
-        <v>44593.3948281912</v>
+        <v>44593.39482819119</v>
       </c>
       <c r="M4" t="n">
+        <v>44593.39482819118</v>
+      </c>
+      <c r="N4" t="n">
         <v>44593.39482819119</v>
-      </c>
-      <c r="N4" t="n">
-        <v>44593.39482819117</v>
       </c>
       <c r="O4" t="n">
         <v>44593.39482819119</v>
@@ -26473,25 +26473,25 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="K5" t="n">
         <v>96628.20853022278</v>
@@ -26506,7 +26506,7 @@
         <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
         <v>97715.10582002539</v>
@@ -26519,43 +26519,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-448464.9843789439</v>
+        <v>-448464.984378944</v>
       </c>
       <c r="C6" t="n">
+        <v>141502.8948356006</v>
+      </c>
+      <c r="D6" t="n">
         <v>141502.8948356007</v>
       </c>
-      <c r="D6" t="n">
-        <v>141502.8948356006</v>
-      </c>
       <c r="E6" t="n">
-        <v>-267844.3632616598</v>
+        <v>-267941.8223876319</v>
       </c>
       <c r="F6" t="n">
-        <v>257315.6732152362</v>
+        <v>257218.2140892638</v>
       </c>
       <c r="G6" t="n">
-        <v>257315.6732152363</v>
+        <v>257218.2140892641</v>
       </c>
       <c r="H6" t="n">
-        <v>257315.6732152359</v>
+        <v>257218.2140892641</v>
       </c>
       <c r="I6" t="n">
-        <v>257315.6732152366</v>
+        <v>257218.2140892641</v>
       </c>
       <c r="J6" t="n">
-        <v>80892.45402264337</v>
+        <v>80794.99489667112</v>
       </c>
       <c r="K6" t="n">
-        <v>205350.9865438711</v>
+        <v>205332.4928059368</v>
       </c>
       <c r="L6" t="n">
-        <v>237343.4332364512</v>
+        <v>237343.4332364511</v>
       </c>
       <c r="M6" t="n">
-        <v>112885.324803481</v>
+        <v>112885.3248034809</v>
       </c>
       <c r="N6" t="n">
-        <v>247686.3400373182</v>
+        <v>247686.3400373181</v>
       </c>
       <c r="O6" t="n">
         <v>247686.3400373181</v>
@@ -26695,7 +26695,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.422095482516306e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26707,22 +26707,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>5.55708050057153e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
         <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P2" t="n">
         <v>68.13189012964065</v>
@@ -26735,49 +26735,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541008</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26917,7 +26917,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>4.137005040047435e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855696</v>
+        <v>55.2032566285569</v>
       </c>
       <c r="L2" t="n">
         <v>12.92863350108375</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855691</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>4.137005040047435e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855696</v>
+        <v>55.2032566285569</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,22 +27382,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>110.9375220363497</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>262.3533786123876</v>
       </c>
     </row>
     <row r="3">
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>58.74372992181496</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27552,13 +27552,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>164.1090973330608</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,13 +27616,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>359.2379808687623</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>118.3124816943005</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27780,7 +27780,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>97.04438339053246</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,13 +27789,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>11.99007165458411</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>98.8081240445506</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>60.70925662240427</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28017,10 +28017,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28065,19 +28065,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>90.52472273120617</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>63.3731647155137</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -29515,7 +29515,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855691</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="44">
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443619</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444947</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041491</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304443</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565522</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927189</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540889</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104654</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354104</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386727</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127068</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215735</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622984</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724849</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813465</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855529</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710958</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677467</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361494</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
-        <v>105.8669502822384</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196126</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171321</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337674</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892249</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0816769579135182</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,10 +32874,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>334.7395399415897</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>137.9476282330535</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>384.9870895382559</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109075</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.329650222112</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081122</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349822</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490677</v>
+        <v>137.9476282330536</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879394</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560246</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>326.2624260966936</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415667</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>676.226021517838</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315249</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507424</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.5077701655656</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187483</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,28 +36358,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,16 +36680,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36850,7 +36850,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R29" t="n">
         <v>59.8253897034981</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412249</v>
+        <v>67.71102679412245</v>
       </c>
       <c r="K31" t="n">
         <v>206.9056851584675</v>
@@ -36996,19 +36996,19 @@
         <v>305.4174435084855</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075295</v>
+        <v>329.5130978075294</v>
       </c>
       <c r="N31" t="n">
         <v>328.4801344341606</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491599</v>
+        <v>291.4406081491598</v>
       </c>
       <c r="P31" t="n">
         <v>233.5868572403577</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043172</v>
+        <v>94.42895660043168</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,16 +37154,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37224,16 +37224,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520623</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L34" t="n">
         <v>318.3460770095692</v>
       </c>
       <c r="M34" t="n">
-        <v>342.4417313086133</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
         <v>341.4087679352443</v>
@@ -37245,7 +37245,7 @@
         <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,16 +37306,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109079</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081133</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
         <v>713.1546070951472</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,16 +37391,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37461,16 +37461,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520623</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L37" t="n">
         <v>318.3460770095692</v>
       </c>
       <c r="M37" t="n">
-        <v>342.4417313086133</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
         <v>341.4087679352443</v>
@@ -37482,7 +37482,7 @@
         <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,16 +37628,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,10 +37713,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37786,7 +37786,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,7 +37950,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414414</v>
@@ -38017,7 +38017,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,22 +38102,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,10 +38184,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
         <v>246.5154907414414</v>
